--- a/config_5.11/shoping_config.xlsx
+++ b/config_5.11/shoping_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="1802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5008" uniqueCount="1803">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6147,6 +6147,9 @@
     <t>{type="permission_class",class_value = "integral_gift_buy_v8" }</t>
   </si>
   <si>
+    <t>{type="permission_class",class_value = "mslb_cps_nobuy" }</t>
+  </si>
+  <si>
     <t>line_id|行号，购买项的唯一编号，和客户端 ui 配置对应</t>
   </si>
   <si>
@@ -6613,9 +6616,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -6656,25 +6659,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6687,7 +6673,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6696,36 +6681,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6740,17 +6712,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6770,25 +6765,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6801,11 +6788,27 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6910,7 +6913,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6928,139 +7057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7100,6 +7103,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7117,8 +7153,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7148,41 +7186,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7205,10 +7208,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7217,133 +7220,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13536,12 +13539,12 @@
   <sheetPr/>
   <dimension ref="A1:AN627"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AM607" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="AA595" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ629" sqref="AQ629"/>
+      <selection pane="bottomRight" activeCell="AA619" sqref="AA619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -53226,6 +53229,9 @@
       <c r="Z617" s="34">
         <v>1620662399</v>
       </c>
+      <c r="AA617" s="34">
+        <v>84</v>
+      </c>
       <c r="AH617" s="34">
         <v>1</v>
       </c>
@@ -53287,6 +53293,9 @@
       </c>
       <c r="Z618" s="34">
         <v>1620662399</v>
+      </c>
+      <c r="AA618" s="34">
+        <v>84</v>
       </c>
       <c r="AH618" s="34">
         <v>1</v>
@@ -53900,10 +53909,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -55104,6 +55113,20 @@
         <v>1</v>
       </c>
       <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
         <v>0</v>
       </c>
     </row>
@@ -55152,7 +55175,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -55167,19 +55190,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -55194,7 +55217,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -55239,7 +55262,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -55259,7 +55282,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -55289,19 +55312,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -55330,7 +55353,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -55357,22 +55380,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -55401,7 +55424,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -55428,22 +55451,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -55472,7 +55495,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -55499,22 +55522,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -55543,7 +55566,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -55570,22 +55593,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -55614,7 +55637,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -55641,22 +55664,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -55680,7 +55703,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -55707,22 +55730,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -55746,7 +55769,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -55773,19 +55796,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -55794,7 +55817,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -55812,7 +55835,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -55842,16 +55865,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -55860,7 +55883,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -55878,7 +55901,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -55905,22 +55928,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -55949,7 +55972,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -55976,22 +55999,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -56020,7 +56043,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -56047,22 +56070,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>1732</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>1704</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>1730</v>
       </c>
-      <c r="R13" s="17" t="s">
-        <v>1731</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>1703</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1732</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>1729</v>
-      </c>
       <c r="W13" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -56091,7 +56114,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -56118,22 +56141,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -56157,7 +56180,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -56187,20 +56210,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -56209,7 +56232,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -56232,7 +56255,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -56259,22 +56282,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -56298,7 +56321,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -56325,22 +56348,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -56364,7 +56387,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -56391,22 +56414,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -56430,7 +56453,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -56457,22 +56480,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -56496,7 +56519,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -56523,22 +56546,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -56562,7 +56585,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -56589,22 +56612,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -56628,7 +56651,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -56655,20 +56678,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -56692,7 +56715,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -56722,17 +56745,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -56749,14 +56772,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -56786,20 +56809,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -56808,7 +56831,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -56831,7 +56854,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -56858,22 +56881,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -56943,13 +56966,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -56961,16 +56984,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -57011,7 +57034,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -57023,7 +57046,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -57032,7 +57055,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -57041,22 +57064,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -57067,7 +57090,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -57079,7 +57102,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -57088,7 +57111,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -57097,22 +57120,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -57126,7 +57149,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -57151,19 +57174,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -57174,7 +57197,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -57201,10 +57224,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -57215,7 +57238,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -57242,10 +57265,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -57256,7 +57279,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -57268,7 +57291,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -57277,7 +57300,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -57286,22 +57309,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -57315,10 +57338,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -57330,7 +57353,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -57345,22 +57368,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -57371,10 +57394,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -57389,16 +57412,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -57409,10 +57432,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -57427,16 +57450,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -57447,10 +57470,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -57465,16 +57488,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -57485,10 +57508,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -57503,16 +57526,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -57523,7 +57546,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -57547,16 +57570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -57570,7 +57593,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -57594,16 +57617,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -57617,10 +57640,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -57641,16 +57664,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -57664,10 +57687,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -57683,13 +57706,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -57700,10 +57723,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -57719,13 +57742,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -57736,7 +57759,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -57755,13 +57778,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -57772,7 +57795,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -57791,13 +57814,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -57808,7 +57831,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -57826,16 +57849,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -57846,7 +57869,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -57864,16 +57887,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
   </sheetData>

--- a/config_5.11/shoping_config.xlsx
+++ b/config_5.11/shoping_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -6616,9 +6616,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -6659,24 +6659,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6688,62 +6683,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6758,14 +6714,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6779,6 +6750,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -6788,16 +6767,37 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6913,13 +6913,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6931,13 +6973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6955,91 +6991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7057,13 +7009,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7103,39 +7103,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7153,10 +7120,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7186,6 +7151,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7200,6 +7180,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7208,10 +7208,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7220,133 +7220,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13539,12 +13539,12 @@
   <sheetPr/>
   <dimension ref="A1:AN627"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AA595" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="AHU606" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA619" sqref="AA619"/>
+      <selection pane="bottomRight" activeCell="AHX632" sqref="AHX632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -53362,6 +53362,9 @@
       <c r="Z619" s="34">
         <v>1621267199</v>
       </c>
+      <c r="AA619" s="34">
+        <v>73</v>
+      </c>
       <c r="AH619" s="34">
         <v>1</v>
       </c>
@@ -53427,6 +53430,9 @@
       <c r="Z620" s="34">
         <v>1621267199</v>
       </c>
+      <c r="AA620" s="34">
+        <v>73</v>
+      </c>
       <c r="AH620" s="34">
         <v>1</v>
       </c>
@@ -53492,6 +53498,9 @@
       <c r="Z621" s="34">
         <v>1621267199</v>
       </c>
+      <c r="AA621" s="34">
+        <v>73</v>
+      </c>
       <c r="AH621" s="34">
         <v>1</v>
       </c>
@@ -53557,6 +53566,9 @@
       <c r="Z622" s="34">
         <v>1621267199</v>
       </c>
+      <c r="AA622" s="34">
+        <v>74</v>
+      </c>
       <c r="AH622" s="34">
         <v>1</v>
       </c>
@@ -53622,6 +53634,9 @@
       <c r="Z623" s="34">
         <v>1621267199</v>
       </c>
+      <c r="AA623" s="34">
+        <v>74</v>
+      </c>
       <c r="AH623" s="34">
         <v>1</v>
       </c>
@@ -53687,6 +53702,9 @@
       <c r="Z624" s="34">
         <v>1621267199</v>
       </c>
+      <c r="AA624" s="34">
+        <v>74</v>
+      </c>
       <c r="AH624" s="34">
         <v>1</v>
       </c>
@@ -53752,6 +53770,9 @@
       <c r="Z625" s="34">
         <v>1621267199</v>
       </c>
+      <c r="AA625" s="34">
+        <v>75</v>
+      </c>
       <c r="AH625" s="34">
         <v>1</v>
       </c>
@@ -53817,6 +53838,9 @@
       <c r="Z626" s="34">
         <v>1621267199</v>
       </c>
+      <c r="AA626" s="34">
+        <v>75</v>
+      </c>
       <c r="AH626" s="34">
         <v>1</v>
       </c>
@@ -53881,6 +53905,9 @@
       </c>
       <c r="Z627" s="34">
         <v>1621267199</v>
+      </c>
+      <c r="AA627" s="34">
+        <v>75</v>
       </c>
       <c r="AH627" s="34">
         <v>1</v>
@@ -53911,8 +53938,8 @@
   <sheetPr/>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/config_5.11/shoping_config.xlsx
+++ b/config_5.11/shoping_config.xlsx
@@ -6659,6 +6659,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -6668,7 +6743,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6683,76 +6758,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6761,14 +6769,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6913,25 +6913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6955,13 +6943,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6973,13 +6973,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6991,25 +6991,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7027,19 +7039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7051,19 +7051,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7104,6 +7104,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -7127,41 +7157,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7208,10 +7208,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7220,34 +7220,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7256,37 +7253,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7295,58 +7295,58 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13540,11 +13540,11 @@
   <dimension ref="A1:AN627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AHU606" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W606" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AHX632" sqref="AHX632"/>
+      <selection pane="bottomRight" activeCell="AA629" sqref="AA629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -53363,7 +53363,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA619" s="34">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AH619" s="34">
         <v>1</v>
@@ -53431,7 +53431,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA620" s="34">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AH620" s="34">
         <v>1</v>
@@ -53499,7 +53499,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA621" s="34">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AH621" s="34">
         <v>1</v>
@@ -53567,7 +53567,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA622" s="34">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="AH622" s="34">
         <v>1</v>
@@ -53635,7 +53635,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA623" s="34">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="AH623" s="34">
         <v>1</v>
@@ -53703,7 +53703,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA624" s="34">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="AH624" s="34">
         <v>1</v>
@@ -53771,7 +53771,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA625" s="34">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AH625" s="34">
         <v>1</v>
@@ -53839,7 +53839,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA626" s="34">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AH626" s="34">
         <v>1</v>
@@ -53907,7 +53907,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA627" s="34">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AH627" s="34">
         <v>1</v>
@@ -53938,8 +53938,8 @@
   <sheetPr/>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
